--- a/Milestones-BOM1.xlsx
+++ b/Milestones-BOM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstar\Desktop\Milestones\IntroElectronicsPro\IntElePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF1A5EE-6C30-413D-A8D5-96DB7077629B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFBFF5-ADFE-4A25-92C7-63C1A0284CDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
